--- a/artfynd/A 31224-2022.xlsx
+++ b/artfynd/A 31224-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY13"/>
+  <dimension ref="A1:AY14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2168,6 +2168,124 @@
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>111979337</v>
+      </c>
+      <c r="B14" t="n">
+        <v>88924</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>256703</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Tallfingersvamp</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Ramaria eosanguinea</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>R.H.Petersen</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Älgered, Nordanstig (Älgered, Nordanstig), Hls</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>601184</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6877674</v>
+      </c>
+      <c r="S14" t="n">
+        <v>20</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Nordanstig</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Hälsingland</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Bergsjö</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>11:38</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>11:38</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Vid stigförgrening invid äldre tall. Se bilder.</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Henrik Tykosson</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Henrik Tykosson</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 31224-2022.xlsx
+++ b/artfynd/A 31224-2022.xlsx
@@ -2173,7 +2173,7 @@
         <v>111979337</v>
       </c>
       <c r="B14" t="n">
-        <v>88924</v>
+        <v>89058</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>

--- a/artfynd/A 31224-2022.xlsx
+++ b/artfynd/A 31224-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY14"/>
+  <dimension ref="A1:AY16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2286,6 +2286,253 @@
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>112481511</v>
+      </c>
+      <c r="B15" t="n">
+        <v>90813</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1435</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Bitter taggsvamp</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Hydnellum fennicum</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(P.Karst.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Barrtjärnen, Bergsjövägen, Ede, Nordanstigs kommun (Barrtjärnen, Bergsjövägen, Ede, Nordanstigs kommun), Hls</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>601183</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6877672</v>
+      </c>
+      <c r="S15" t="n">
+        <v>25</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Nordanstig</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Hälsingland</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Bergsjö</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>I slänten ner mot en större svacka i terrängen. Ca 3 m från stigen. Tydlig doft av bittermandel.</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Henrik Tykosson</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Henrik Tykosson</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>112481246</v>
+      </c>
+      <c r="B16" t="n">
+        <v>90291</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1958</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Lammticka</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Albatrellus subrubescens</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Murrill) Pouzar</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Barrtjärnen, Bergsjövägen, Ede, Nordanstigs kommun (Barrtjärnen, Bergsjövägen, Ede, Nordanstigs kommun), Hls</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>601210</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6877659</v>
+      </c>
+      <c r="S16" t="n">
+        <v>25</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Nordanstig</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Hälsingland</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Bergsjö</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>16:05</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>16:05</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>I kanten av stigen ned mot båtplats. Västra kanten I böjen.</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Henrik Tykosson</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Henrik Tykosson</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 31224-2022.xlsx
+++ b/artfynd/A 31224-2022.xlsx
@@ -2173,7 +2173,7 @@
         <v>111979337</v>
       </c>
       <c r="B14" t="n">
-        <v>89058</v>
+        <v>89072</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2288,10 +2288,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112481511</v>
+        <v>112481246</v>
       </c>
       <c r="B15" t="n">
-        <v>90813</v>
+        <v>90291</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2304,45 +2304,35 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1435</v>
+        <v>1958</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bitter taggsvamp</t>
+          <t>Lammticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum fennicum</t>
+          <t>Albatrellus subrubescens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Murrill) Pouzar</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Barrtjärnen, Bergsjövägen, Ede, Nordanstigs kommun (Barrtjärnen, Bergsjövägen, Ede, Nordanstigs kommun), Hls</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>601183</v>
+        <v>601210</v>
       </c>
       <c r="R15" t="n">
-        <v>6877672</v>
+        <v>6877659</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2369,27 +2359,27 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2023-09-09</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2023-09-09</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>I slänten ner mot en större svacka i terrängen. Ca 3 m från stigen. Tydlig doft av bittermandel.</t>
+          <t>I kanten av stigen ned mot båtplats. Västra kanten I böjen.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2398,7 +2388,6 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2417,10 +2406,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112481246</v>
+        <v>112481511</v>
       </c>
       <c r="B16" t="n">
-        <v>90291</v>
+        <v>90813</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2433,35 +2422,45 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1958</v>
+        <v>1435</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lammticka</t>
+          <t>Bitter taggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Albatrellus subrubescens</t>
+          <t>Hydnellum fennicum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Murrill) Pouzar</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>(P.Karst.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Barrtjärnen, Bergsjövägen, Ede, Nordanstigs kommun (Barrtjärnen, Bergsjövägen, Ede, Nordanstigs kommun), Hls</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>601210</v>
+        <v>601183</v>
       </c>
       <c r="R16" t="n">
-        <v>6877659</v>
+        <v>6877672</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2488,27 +2487,27 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-09-09</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-09-09</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>I kanten av stigen ned mot båtplats. Västra kanten I böjen.</t>
+          <t>I slänten ner mot en större svacka i terrängen. Ca 3 m från stigen. Tydlig doft av bittermandel.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2517,6 +2516,7 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
